--- a/data/pca/factorExposure/factorExposure_2018-10-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.06465464906299394</v>
+        <v>0.04342171004667194</v>
       </c>
       <c r="C2">
-        <v>0.06490125547356164</v>
+        <v>-0.004368324838191317</v>
       </c>
       <c r="D2">
-        <v>0.05965766998253004</v>
+        <v>0.01500752752392216</v>
       </c>
       <c r="E2">
-        <v>0.03968498145730736</v>
+        <v>0.01498309727508527</v>
       </c>
       <c r="F2">
-        <v>0.1448007493680577</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0441707474194497</v>
+      </c>
+      <c r="G2">
+        <v>0.1071233617821773</v>
+      </c>
+      <c r="H2">
+        <v>-0.08522860918138146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1859818152041961</v>
+        <v>0.1137538007248064</v>
       </c>
       <c r="C3">
-        <v>0.00725197623545503</v>
+        <v>0.03786845490486274</v>
       </c>
       <c r="D3">
-        <v>0.1270328397947827</v>
+        <v>0.05266734259845077</v>
       </c>
       <c r="E3">
-        <v>0.1247568805702638</v>
+        <v>0.00763193198976086</v>
       </c>
       <c r="F3">
-        <v>0.3524708981014785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03178988672905949</v>
+      </c>
+      <c r="G3">
+        <v>0.3373250867378416</v>
+      </c>
+      <c r="H3">
+        <v>-0.3027042885337225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.062368068329314</v>
+        <v>0.05361198338565972</v>
       </c>
       <c r="C4">
-        <v>0.0371528195388084</v>
+        <v>0.003922293385136625</v>
       </c>
       <c r="D4">
-        <v>0.03643881261524361</v>
+        <v>0.03056239748842646</v>
       </c>
       <c r="E4">
-        <v>0.06532983797026752</v>
+        <v>-0.01816688685868462</v>
       </c>
       <c r="F4">
-        <v>0.059948420764213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06510978208997542</v>
+      </c>
+      <c r="G4">
+        <v>0.05591283577376333</v>
+      </c>
+      <c r="H4">
+        <v>-0.03092693138442939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.007018513671797507</v>
+        <v>0.03128266332611081</v>
       </c>
       <c r="C6">
-        <v>0.004868876051257417</v>
+        <v>0.000981707269348719</v>
       </c>
       <c r="D6">
-        <v>0.005320038040753326</v>
+        <v>0.02301797958092515</v>
       </c>
       <c r="E6">
-        <v>-0.003657658836644574</v>
+        <v>-0.004227292279168539</v>
       </c>
       <c r="F6">
-        <v>0.005330103207166358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.03013160010945311</v>
+      </c>
+      <c r="G6">
+        <v>0.0137449263747737</v>
+      </c>
+      <c r="H6">
+        <v>0.03734794736870318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03384672323200857</v>
+        <v>0.02599195561766747</v>
       </c>
       <c r="C7">
-        <v>0.02004887646500514</v>
+        <v>0.002312343509849232</v>
       </c>
       <c r="D7">
-        <v>0.04255668272347641</v>
+        <v>0.01843431224271332</v>
       </c>
       <c r="E7">
-        <v>0.02468859572248256</v>
+        <v>-0.03476923057820541</v>
       </c>
       <c r="F7">
-        <v>0.06357155897021191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02906236234335504</v>
+      </c>
+      <c r="G7">
+        <v>0.04931431715287859</v>
+      </c>
+      <c r="H7">
+        <v>-0.03799385168350376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03058051562956568</v>
+        <v>0.0112104284133266</v>
       </c>
       <c r="C8">
-        <v>0.008131062462519262</v>
+        <v>0.005584607799982304</v>
       </c>
       <c r="D8">
-        <v>0.02815233581455675</v>
+        <v>0.02291488849996203</v>
       </c>
       <c r="E8">
-        <v>0.05892276120412089</v>
+        <v>-0.01039116509985352</v>
       </c>
       <c r="F8">
-        <v>0.09420999882934947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.03031097829215142</v>
+      </c>
+      <c r="G8">
+        <v>0.06500025005330556</v>
+      </c>
+      <c r="H8">
+        <v>-0.06225355989310429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05030027292869468</v>
+        <v>0.04272891281126506</v>
       </c>
       <c r="C9">
-        <v>0.03257456682864585</v>
+        <v>0.006490775832750812</v>
       </c>
       <c r="D9">
-        <v>0.01937043235811865</v>
+        <v>0.02460646291218378</v>
       </c>
       <c r="E9">
-        <v>0.07050168759994585</v>
+        <v>-0.01754668595455894</v>
       </c>
       <c r="F9">
-        <v>0.06016104410761641</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04464760644346426</v>
+      </c>
+      <c r="G9">
+        <v>0.07432161205425517</v>
+      </c>
+      <c r="H9">
+        <v>-0.02927193670731017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03620477103685347</v>
+        <v>0.0630721343315178</v>
       </c>
       <c r="C10">
-        <v>0.05822407748226008</v>
+        <v>0.02150720469041886</v>
       </c>
       <c r="D10">
-        <v>-0.0963360148729224</v>
+        <v>-0.1588145841335935</v>
       </c>
       <c r="E10">
-        <v>-0.1174337149605684</v>
+        <v>0.01656940745019803</v>
       </c>
       <c r="F10">
-        <v>0.08154989252661032</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0748936599785449</v>
+      </c>
+      <c r="G10">
+        <v>0.05057523980276359</v>
+      </c>
+      <c r="H10">
+        <v>-0.03005286724025339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04400828228413509</v>
+        <v>0.03040803490608316</v>
       </c>
       <c r="C11">
-        <v>0.009848163092086889</v>
+        <v>0.01504145679814537</v>
       </c>
       <c r="D11">
-        <v>0.02783256973443575</v>
+        <v>0.03171233408549081</v>
       </c>
       <c r="E11">
-        <v>0.02158245650650114</v>
+        <v>0.00514423919225004</v>
       </c>
       <c r="F11">
-        <v>0.03656284217542228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02522281974911513</v>
+      </c>
+      <c r="G11">
+        <v>0.04489268755009658</v>
+      </c>
+      <c r="H11">
+        <v>-0.00856816403900426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04500826627691421</v>
+        <v>0.03620860231375322</v>
       </c>
       <c r="C12">
-        <v>0.0110349787037832</v>
+        <v>0.01266456437109941</v>
       </c>
       <c r="D12">
-        <v>0.02149810969528207</v>
+        <v>0.02994914373439036</v>
       </c>
       <c r="E12">
-        <v>0.03772045790518207</v>
+        <v>-0.005968321761897447</v>
       </c>
       <c r="F12">
-        <v>0.01924995279212994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.02656407326298471</v>
+      </c>
+      <c r="G12">
+        <v>0.0131874254160089</v>
+      </c>
+      <c r="H12">
+        <v>-0.007405629763971326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.03903336868198561</v>
+        <v>0.03409377934474048</v>
       </c>
       <c r="C13">
-        <v>0.02452888810519337</v>
+        <v>-0.007083430980821045</v>
       </c>
       <c r="D13">
-        <v>0.04453242274905814</v>
+        <v>0.006543162709540837</v>
       </c>
       <c r="E13">
-        <v>0.01230547431128932</v>
+        <v>0.01618301536951031</v>
       </c>
       <c r="F13">
-        <v>0.1016001401060257</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02694898054292224</v>
+      </c>
+      <c r="G13">
+        <v>0.08195460584622759</v>
+      </c>
+      <c r="H13">
+        <v>-0.04498143377918506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0157668840980438</v>
+        <v>0.01636585086840146</v>
       </c>
       <c r="C14">
-        <v>0.02374699627466193</v>
+        <v>0.002221210216453283</v>
       </c>
       <c r="D14">
-        <v>0.0219953349304532</v>
+        <v>-6.065070572929398e-05</v>
       </c>
       <c r="E14">
-        <v>0.03251973066510973</v>
+        <v>-0.008064007333694913</v>
       </c>
       <c r="F14">
-        <v>0.05736583540676389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03013308774238271</v>
+      </c>
+      <c r="G14">
+        <v>0.038005715394666</v>
+      </c>
+      <c r="H14">
+        <v>-0.07153983871374302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03655557849665882</v>
+        <v>0.02975196216042571</v>
       </c>
       <c r="C16">
-        <v>0.00950049719980854</v>
+        <v>0.01447008785432877</v>
       </c>
       <c r="D16">
-        <v>0.02501901061921804</v>
+        <v>0.02917882939469316</v>
       </c>
       <c r="E16">
-        <v>0.0216869675238178</v>
+        <v>0.0002032204879144315</v>
       </c>
       <c r="F16">
-        <v>0.03283323952590605</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02432026172381203</v>
+      </c>
+      <c r="G16">
+        <v>0.03274145602995249</v>
+      </c>
+      <c r="H16">
+        <v>-0.01016818867498497</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.05083043293085468</v>
+        <v>0.03926522236225199</v>
       </c>
       <c r="C19">
-        <v>0.006504897468309283</v>
+        <v>0.006418294021626233</v>
       </c>
       <c r="D19">
-        <v>0.03863483175619802</v>
+        <v>0.01624383079314572</v>
       </c>
       <c r="E19">
-        <v>0.02603515563715718</v>
+        <v>0.004456927213312013</v>
       </c>
       <c r="F19">
-        <v>0.09271872509630256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03474473363382859</v>
+      </c>
+      <c r="G19">
+        <v>0.08239241677911037</v>
+      </c>
+      <c r="H19">
+        <v>-0.05438002044592091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0129945783742054</v>
+        <v>0.01072145450910013</v>
       </c>
       <c r="C20">
-        <v>0.01807725484110486</v>
+        <v>-0.004783011930497936</v>
       </c>
       <c r="D20">
-        <v>0.03337512507367132</v>
+        <v>0.01255503312512259</v>
       </c>
       <c r="E20">
-        <v>0.04523767208330251</v>
+        <v>-0.004108820546907584</v>
       </c>
       <c r="F20">
-        <v>0.05705998044280689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02492057670992803</v>
+      </c>
+      <c r="G20">
+        <v>0.05082891533518492</v>
+      </c>
+      <c r="H20">
+        <v>-0.06200421344051141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01275882685660107</v>
+        <v>0.02403894826447871</v>
       </c>
       <c r="C21">
-        <v>-0.0001316974294571113</v>
+        <v>-0.003058979457113084</v>
       </c>
       <c r="D21">
-        <v>0.03014745745261446</v>
+        <v>0.002248104624597389</v>
       </c>
       <c r="E21">
-        <v>0.02842061165361737</v>
+        <v>-0.01145975840872868</v>
       </c>
       <c r="F21">
-        <v>0.095460400814891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.0131607005798793</v>
+      </c>
+      <c r="G21">
+        <v>0.06440083867533959</v>
+      </c>
+      <c r="H21">
+        <v>-0.04192535360538295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03369387742054283</v>
+        <v>0.02771082464473089</v>
       </c>
       <c r="C24">
-        <v>0.009286619252455474</v>
+        <v>0.008871261181329946</v>
       </c>
       <c r="D24">
-        <v>0.02015676553954407</v>
+        <v>0.0283922336516281</v>
       </c>
       <c r="E24">
-        <v>0.02200832169454618</v>
+        <v>-0.0005147091540739644</v>
       </c>
       <c r="F24">
-        <v>0.04108308948277725</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02190429038901257</v>
+      </c>
+      <c r="G24">
+        <v>0.03543010364082361</v>
+      </c>
+      <c r="H24">
+        <v>-0.0029643191657854</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03860141074064457</v>
+        <v>0.03776821136085608</v>
       </c>
       <c r="C25">
-        <v>0.00915989362149101</v>
+        <v>0.008040116764928808</v>
       </c>
       <c r="D25">
-        <v>0.02272268489785806</v>
+        <v>0.02375602867745242</v>
       </c>
       <c r="E25">
-        <v>0.03020427788175771</v>
+        <v>-0.001304194996327126</v>
       </c>
       <c r="F25">
-        <v>0.04080245168698404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02861938156165971</v>
+      </c>
+      <c r="G25">
+        <v>0.0423292338118967</v>
+      </c>
+      <c r="H25">
+        <v>-0.008024142411471287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01937847614696006</v>
+        <v>0.01894974400883029</v>
       </c>
       <c r="C26">
-        <v>0.000112775282841432</v>
+        <v>-0.01637129702728722</v>
       </c>
       <c r="D26">
-        <v>0.04610276393720683</v>
+        <v>0.01026314622823718</v>
       </c>
       <c r="E26">
-        <v>0.01879002254134152</v>
+        <v>0.005475196235058466</v>
       </c>
       <c r="F26">
-        <v>0.05729023738261439</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.009148469012529845</v>
+      </c>
+      <c r="G26">
+        <v>0.04454356865543109</v>
+      </c>
+      <c r="H26">
+        <v>-0.05056233720051783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09133331705924377</v>
+        <v>0.04421625391543742</v>
       </c>
       <c r="C27">
-        <v>0.0533502326923064</v>
+        <v>0.02154447830318248</v>
       </c>
       <c r="D27">
-        <v>0.02047925914141736</v>
+        <v>0.008392104419610023</v>
       </c>
       <c r="E27">
-        <v>0.04822475766905206</v>
+        <v>-0.002638048874272985</v>
       </c>
       <c r="F27">
-        <v>0.05501179163823289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03319256136741713</v>
+      </c>
+      <c r="G27">
+        <v>0.03533811146711182</v>
+      </c>
+      <c r="H27">
+        <v>-0.03534637466481807</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.04926153670818904</v>
+        <v>0.09531127028200855</v>
       </c>
       <c r="C28">
-        <v>0.07019249459651039</v>
+        <v>0.01839420007576322</v>
       </c>
       <c r="D28">
-        <v>-0.1563108215936027</v>
+        <v>-0.2355754036722786</v>
       </c>
       <c r="E28">
-        <v>-0.1666351438224035</v>
+        <v>0.01667397273029967</v>
       </c>
       <c r="F28">
-        <v>0.08028345652431422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1092448069505074</v>
+      </c>
+      <c r="G28">
+        <v>0.03137588690596999</v>
+      </c>
+      <c r="H28">
+        <v>-0.05621769447635849</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02119621251000289</v>
+        <v>0.02094084785887818</v>
       </c>
       <c r="C29">
-        <v>0.02147525774199143</v>
+        <v>0.004223908331288585</v>
       </c>
       <c r="D29">
-        <v>0.01977926665672301</v>
+        <v>0.001154547219176301</v>
       </c>
       <c r="E29">
-        <v>0.04068412090593614</v>
+        <v>-0.008457618466166959</v>
       </c>
       <c r="F29">
-        <v>0.04489178030488762</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02979732326502322</v>
+      </c>
+      <c r="G29">
+        <v>0.03290111189397384</v>
+      </c>
+      <c r="H29">
+        <v>-0.06609047039948956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09378349047632295</v>
+        <v>0.07111057657035838</v>
       </c>
       <c r="C30">
-        <v>0.05537278852867223</v>
+        <v>0.01022579735470871</v>
       </c>
       <c r="D30">
-        <v>0.063715434406537</v>
+        <v>0.04615560514325726</v>
       </c>
       <c r="E30">
-        <v>0.05077269890253997</v>
+        <v>0.03930878620098653</v>
       </c>
       <c r="F30">
-        <v>0.07427835292379467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07449119825844827</v>
+      </c>
+      <c r="G30">
+        <v>0.08638595640035381</v>
+      </c>
+      <c r="H30">
+        <v>-0.01602852190801127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05919713673301576</v>
+        <v>0.05473094323634873</v>
       </c>
       <c r="C31">
-        <v>0.01681890444344441</v>
+        <v>0.02047103570043807</v>
       </c>
       <c r="D31">
-        <v>0.04292178955750332</v>
+        <v>0.01160887289896803</v>
       </c>
       <c r="E31">
-        <v>-0.005338372349123925</v>
+        <v>0.01011790337508183</v>
       </c>
       <c r="F31">
-        <v>0.03314936685820501</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01999098120097337</v>
+      </c>
+      <c r="G31">
+        <v>0.01560033780422681</v>
+      </c>
+      <c r="H31">
+        <v>-0.06063406086420339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.04149378843475399</v>
+        <v>0.01733156588025296</v>
       </c>
       <c r="C32">
-        <v>0.01752434377109071</v>
+        <v>0.01973358672042968</v>
       </c>
       <c r="D32">
-        <v>0.04760865674872495</v>
+        <v>0.01375693848125956</v>
       </c>
       <c r="E32">
-        <v>0.08036551636045514</v>
+        <v>-0.01726699297972085</v>
       </c>
       <c r="F32">
-        <v>0.07501556507258926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05552406340746852</v>
+      </c>
+      <c r="G32">
+        <v>0.06360892816400759</v>
+      </c>
+      <c r="H32">
+        <v>-0.02224476123327305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.0600312727967072</v>
+        <v>0.04522446796030531</v>
       </c>
       <c r="C33">
-        <v>0.0060205820543967</v>
+        <v>0.007884652117051572</v>
       </c>
       <c r="D33">
-        <v>0.06307806570488597</v>
+        <v>0.03009538053925851</v>
       </c>
       <c r="E33">
-        <v>0.03292185127020218</v>
+        <v>0.02341838716362189</v>
       </c>
       <c r="F33">
-        <v>0.08778522117522168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01919404577239624</v>
+      </c>
+      <c r="G33">
+        <v>0.07306678642871312</v>
+      </c>
+      <c r="H33">
+        <v>-0.05668022455213637</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03919469480812333</v>
+        <v>0.03115445300260231</v>
       </c>
       <c r="C34">
-        <v>0.01558476647734766</v>
+        <v>0.02272545817283244</v>
       </c>
       <c r="D34">
-        <v>0.02644342195535143</v>
+        <v>0.02650637904894069</v>
       </c>
       <c r="E34">
-        <v>0.02888757615760031</v>
+        <v>-0.005369857369510565</v>
       </c>
       <c r="F34">
-        <v>0.04024614368322983</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02872917967883687</v>
+      </c>
+      <c r="G34">
+        <v>0.03487588965714476</v>
+      </c>
+      <c r="H34">
+        <v>-0.01007291931581336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01412178839889442</v>
+        <v>0.01826880397252944</v>
       </c>
       <c r="C36">
-        <v>0.007539401416909973</v>
+        <v>-0.003338132840715047</v>
       </c>
       <c r="D36">
-        <v>0.007614467889253587</v>
+        <v>-0.003064012076382405</v>
       </c>
       <c r="E36">
-        <v>0.01961532596020588</v>
+        <v>-0.003269680462778179</v>
       </c>
       <c r="F36">
-        <v>0.03178635213315122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006057005597570877</v>
+      </c>
+      <c r="G36">
+        <v>0.02448580698457829</v>
+      </c>
+      <c r="H36">
+        <v>-0.04105905919710387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009590124594690944</v>
+        <v>0.01600822894584184</v>
       </c>
       <c r="C38">
-        <v>0.003561080262224276</v>
+        <v>0.01665186291181677</v>
       </c>
       <c r="D38">
-        <v>-0.01425522864876221</v>
+        <v>-0.006074764907727732</v>
       </c>
       <c r="E38">
-        <v>0.002706265116481749</v>
+        <v>-0.004976000747835245</v>
       </c>
       <c r="F38">
-        <v>0.0279857122558706</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01015167252584308</v>
+      </c>
+      <c r="G38">
+        <v>0.04026405829806455</v>
+      </c>
+      <c r="H38">
+        <v>-0.02475904275045212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05045995201848099</v>
+        <v>0.036331305809273</v>
       </c>
       <c r="C39">
-        <v>0.02189964766875266</v>
+        <v>0.01192235322124399</v>
       </c>
       <c r="D39">
-        <v>0.04405735600065483</v>
+        <v>0.06273391196183163</v>
       </c>
       <c r="E39">
-        <v>0.0245366502218632</v>
+        <v>0.003652724243713753</v>
       </c>
       <c r="F39">
-        <v>0.03745242268820757</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04917774730070856</v>
+      </c>
+      <c r="G39">
+        <v>0.0587821732323037</v>
+      </c>
+      <c r="H39">
+        <v>0.018912018688242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.04636313684923551</v>
+        <v>0.03834684775312767</v>
       </c>
       <c r="C40">
-        <v>0.04318216575237589</v>
+        <v>0.008794447567454518</v>
       </c>
       <c r="D40">
-        <v>0.07006980740739409</v>
+        <v>0.02540504421900213</v>
       </c>
       <c r="E40">
-        <v>0.02449555773288875</v>
+        <v>0.02108024550713738</v>
       </c>
       <c r="F40">
-        <v>0.08839561929048076</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04544760108183925</v>
+      </c>
+      <c r="G40">
+        <v>0.06889373816301368</v>
+      </c>
+      <c r="H40">
+        <v>-0.04538176186731335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004688871405515078</v>
+        <v>0.004693324858795289</v>
       </c>
       <c r="C41">
-        <v>-0.003896757086552182</v>
+        <v>-0.002201530555184075</v>
       </c>
       <c r="D41">
-        <v>0.01600915603840354</v>
+        <v>-0.006784566770454572</v>
       </c>
       <c r="E41">
-        <v>0.01608016576578574</v>
+        <v>0.0004125881214532049</v>
       </c>
       <c r="F41">
-        <v>0.01869251877855783</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.001042082333585133</v>
+      </c>
+      <c r="G41">
+        <v>0.009533482186315112</v>
+      </c>
+      <c r="H41">
+        <v>-0.0534043495890788</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3724507846871282</v>
+        <v>0.2755277001460445</v>
       </c>
       <c r="C42">
-        <v>-0.8778975286512901</v>
+        <v>-0.05461783636466868</v>
       </c>
       <c r="D42">
-        <v>0.02935179341952941</v>
+        <v>0.5219286956669568</v>
       </c>
       <c r="E42">
-        <v>-0.2422287301312266</v>
+        <v>0.1105497149311924</v>
       </c>
       <c r="F42">
-        <v>-0.01692940496484508</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7833141621214</v>
+      </c>
+      <c r="G42">
+        <v>-0.05048728346055338</v>
+      </c>
+      <c r="H42">
+        <v>0.02063085020023629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01189985742595549</v>
+        <v>0.003383495478978167</v>
       </c>
       <c r="C43">
-        <v>6.012829901864066e-05</v>
+        <v>-0.003970666074736923</v>
       </c>
       <c r="D43">
-        <v>0.02166226272882687</v>
+        <v>-0.008508736276354963</v>
       </c>
       <c r="E43">
-        <v>0.01452386916547668</v>
+        <v>0.004545695645186832</v>
       </c>
       <c r="F43">
-        <v>0.03460768615837423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.005030095282139552</v>
+      </c>
+      <c r="G43">
+        <v>0.01674249083189694</v>
+      </c>
+      <c r="H43">
+        <v>-0.05636560007553405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.0310767007111144</v>
+        <v>0.01575157731669687</v>
       </c>
       <c r="C44">
-        <v>0.00724749469954545</v>
+        <v>0.002736512137699895</v>
       </c>
       <c r="D44">
-        <v>0.05498367864098155</v>
+        <v>0.02542789648721037</v>
       </c>
       <c r="E44">
-        <v>0.05187445722116445</v>
+        <v>-0.001937933840050972</v>
       </c>
       <c r="F44">
-        <v>0.1771706523813174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01224346795127693</v>
+      </c>
+      <c r="G44">
+        <v>0.1070497777404227</v>
+      </c>
+      <c r="H44">
+        <v>-0.09059967129200634</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02312638547421545</v>
+        <v>0.02204031529116783</v>
       </c>
       <c r="C46">
-        <v>0.01665173643043831</v>
+        <v>0.00116091608290599</v>
       </c>
       <c r="D46">
-        <v>0.04204404329453935</v>
+        <v>0.01076017186061624</v>
       </c>
       <c r="E46">
-        <v>0.03897770783454036</v>
+        <v>0.003703180390490739</v>
       </c>
       <c r="F46">
-        <v>0.04189320441144759</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03730789509058502</v>
+      </c>
+      <c r="G46">
+        <v>0.04532882554316136</v>
+      </c>
+      <c r="H46">
+        <v>-0.06781907783138343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09369039766446291</v>
+        <v>0.0775631871193258</v>
       </c>
       <c r="C47">
-        <v>0.0357759111289492</v>
+        <v>0.0392464075095909</v>
       </c>
       <c r="D47">
-        <v>0.02966739805609829</v>
+        <v>0.01209387762751395</v>
       </c>
       <c r="E47">
-        <v>0.01918188415858773</v>
+        <v>0.006004261262257145</v>
       </c>
       <c r="F47">
-        <v>0.008434888185525966</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.03148380340093174</v>
+      </c>
+      <c r="G47">
+        <v>-0.0161217493451085</v>
+      </c>
+      <c r="H47">
+        <v>-0.07239249830579933</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01488803374129621</v>
+        <v>0.01799425002227494</v>
       </c>
       <c r="C48">
-        <v>0.007984654099417588</v>
+        <v>0.0071892209251982</v>
       </c>
       <c r="D48">
-        <v>0.02493253689601095</v>
+        <v>0.004051863492362602</v>
       </c>
       <c r="E48">
-        <v>0.02725982963442506</v>
+        <v>0.0004666085678274248</v>
       </c>
       <c r="F48">
-        <v>0.0494585235079722</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01290605372198116</v>
+      </c>
+      <c r="G48">
+        <v>0.03180817581391302</v>
+      </c>
+      <c r="H48">
+        <v>-0.03796899813338376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09107270805589532</v>
+        <v>0.07384535794770854</v>
       </c>
       <c r="C50">
-        <v>0.01917446008897961</v>
+        <v>0.0343880091768032</v>
       </c>
       <c r="D50">
-        <v>0.03730020767875167</v>
+        <v>0.02492230585379761</v>
       </c>
       <c r="E50">
-        <v>0.008992267440191482</v>
+        <v>-0.006851809933052722</v>
       </c>
       <c r="F50">
-        <v>0.00873830847434528</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02521226156046739</v>
+      </c>
+      <c r="G50">
+        <v>0.01190717032224428</v>
+      </c>
+      <c r="H50">
+        <v>-0.06202519703777859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04757715172253559</v>
+        <v>0.02832300947445365</v>
       </c>
       <c r="C51">
-        <v>-0.001001471295418937</v>
+        <v>0.003617144642486819</v>
       </c>
       <c r="D51">
-        <v>0.043120044162282</v>
+        <v>-0.002850517754673503</v>
       </c>
       <c r="E51">
-        <v>-0.008691031827513336</v>
+        <v>0.01310359560968237</v>
       </c>
       <c r="F51">
-        <v>0.1654746837952417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01064318903939113</v>
+      </c>
+      <c r="G51">
+        <v>0.1003593888638035</v>
+      </c>
+      <c r="H51">
+        <v>-0.06334209193860599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1188583121701177</v>
+        <v>0.1057918384173111</v>
       </c>
       <c r="C53">
-        <v>0.03841639614128243</v>
+        <v>0.05266520753015561</v>
       </c>
       <c r="D53">
-        <v>0.05889198814644365</v>
+        <v>0.03959409248353283</v>
       </c>
       <c r="E53">
-        <v>0.02705522683449437</v>
+        <v>0.005404900094722673</v>
       </c>
       <c r="F53">
-        <v>-0.06694801702596502</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.057823725344084</v>
+      </c>
+      <c r="G53">
+        <v>-0.0629603086243482</v>
+      </c>
+      <c r="H53">
+        <v>-0.04162706382094084</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02018462062831786</v>
+        <v>0.02132520767588335</v>
       </c>
       <c r="C54">
-        <v>0.03298449739899577</v>
+        <v>0.01412450512402362</v>
       </c>
       <c r="D54">
-        <v>0.009710359664635465</v>
+        <v>-0.02575337435134678</v>
       </c>
       <c r="E54">
-        <v>0.01618117579611232</v>
+        <v>-0.003331962740913538</v>
       </c>
       <c r="F54">
-        <v>0.07804225686752769</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01792139672047961</v>
+      </c>
+      <c r="G54">
+        <v>0.04102405343795489</v>
+      </c>
+      <c r="H54">
+        <v>-0.08280484523580671</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1080747671021352</v>
+        <v>0.09067447217490648</v>
       </c>
       <c r="C55">
-        <v>0.02806080159225249</v>
+        <v>0.04595061548565711</v>
       </c>
       <c r="D55">
-        <v>0.01324950890468536</v>
+        <v>0.03922405471198893</v>
       </c>
       <c r="E55">
-        <v>0.04546963295745477</v>
+        <v>-0.00846828923913857</v>
       </c>
       <c r="F55">
-        <v>-0.05935603465669826</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04784485194346898</v>
+      </c>
+      <c r="G55">
+        <v>-0.04902129377447837</v>
+      </c>
+      <c r="H55">
+        <v>-0.0454617230860656</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.141890347870073</v>
+        <v>0.1340959939593955</v>
       </c>
       <c r="C56">
-        <v>0.07300399805719746</v>
+        <v>0.07378278331901679</v>
       </c>
       <c r="D56">
-        <v>0.03722550340801611</v>
+        <v>0.04465970351504352</v>
       </c>
       <c r="E56">
-        <v>0.04723029922268487</v>
+        <v>-0.001858154465333095</v>
       </c>
       <c r="F56">
-        <v>-0.1641560479599545</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.08234993428537701</v>
+      </c>
+      <c r="G56">
+        <v>-0.1121342398421597</v>
+      </c>
+      <c r="H56">
+        <v>-0.001334778846903956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.05226456052936371</v>
+        <v>0.04541065967479357</v>
       </c>
       <c r="C57">
-        <v>0.01798503362126912</v>
+        <v>-0.003181089101579313</v>
       </c>
       <c r="D57">
-        <v>0.04900032732878995</v>
+        <v>0.02731404653319697</v>
       </c>
       <c r="E57">
-        <v>0.01760255605817109</v>
+        <v>0.01119849267531528</v>
       </c>
       <c r="F57">
-        <v>0.0743273664617007</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.03385748439033486</v>
+      </c>
+      <c r="G57">
+        <v>0.06636992515665802</v>
+      </c>
+      <c r="H57">
+        <v>-0.01698258756084536</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2309862453786315</v>
+        <v>0.1591242666434118</v>
       </c>
       <c r="C58">
-        <v>0.06293762109400707</v>
+        <v>0.06152227137310555</v>
       </c>
       <c r="D58">
-        <v>0.1312126696671443</v>
+        <v>0.09845320543235765</v>
       </c>
       <c r="E58">
-        <v>0.05456685603465428</v>
+        <v>0.1022145713926872</v>
       </c>
       <c r="F58">
-        <v>0.2566171343686389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.05819124716342728</v>
+      </c>
+      <c r="G58">
+        <v>0.440752223211854</v>
+      </c>
+      <c r="H58">
+        <v>-0.2861785684045979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05308740563729527</v>
+        <v>0.100616193823109</v>
       </c>
       <c r="C59">
-        <v>0.09783882490142387</v>
+        <v>0.02823759145576141</v>
       </c>
       <c r="D59">
-        <v>-0.1163698389627917</v>
+        <v>-0.228174236187903</v>
       </c>
       <c r="E59">
-        <v>-0.1222093849211622</v>
+        <v>0.03265356172700549</v>
       </c>
       <c r="F59">
-        <v>0.05472368774845492</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.08119294440004675</v>
+      </c>
+      <c r="G59">
+        <v>0.03853743946912491</v>
+      </c>
+      <c r="H59">
+        <v>-0.02519656161863977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1680243808342154</v>
+        <v>0.1733507773093511</v>
       </c>
       <c r="C60">
-        <v>0.08643952025138568</v>
+        <v>0.05737442566577405</v>
       </c>
       <c r="D60">
-        <v>0.007145970038528908</v>
+        <v>-0.03105115143639486</v>
       </c>
       <c r="E60">
-        <v>-0.07927949688221136</v>
+        <v>0.05780511228846143</v>
       </c>
       <c r="F60">
-        <v>0.1023742065176204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.06212698898503385</v>
+      </c>
+      <c r="G60">
+        <v>0.189770398181144</v>
+      </c>
+      <c r="H60">
+        <v>0.3634861775077851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.03091433501419844</v>
+        <v>0.03014617653247984</v>
       </c>
       <c r="C61">
-        <v>0.01260911307641778</v>
+        <v>0.01327348923868557</v>
       </c>
       <c r="D61">
-        <v>0.01811697152495599</v>
+        <v>0.03336799439236453</v>
       </c>
       <c r="E61">
-        <v>0.02163002403664986</v>
+        <v>-0.001515903948186924</v>
       </c>
       <c r="F61">
-        <v>0.03712542862830742</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03411330241502588</v>
+      </c>
+      <c r="G61">
+        <v>0.03984618721741293</v>
+      </c>
+      <c r="H61">
+        <v>0.01456197898177188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02205119443016709</v>
+        <v>0.0192531266498265</v>
       </c>
       <c r="C63">
-        <v>0.02469323969339251</v>
+        <v>0.003084672800451695</v>
       </c>
       <c r="D63">
-        <v>0.03737950195089086</v>
+        <v>0.01052671951737377</v>
       </c>
       <c r="E63">
-        <v>0.03613959515963819</v>
+        <v>-0.0001430772125519356</v>
       </c>
       <c r="F63">
-        <v>0.04227977676522802</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02866257106556277</v>
+      </c>
+      <c r="G63">
+        <v>0.02823397081608924</v>
+      </c>
+      <c r="H63">
+        <v>-0.06083496460060931</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05285006336597615</v>
+        <v>0.04875241047838101</v>
       </c>
       <c r="C64">
-        <v>0.01740743940674635</v>
+        <v>0.0190270176108799</v>
       </c>
       <c r="D64">
-        <v>0.03002702346084298</v>
+        <v>0.03883554282555236</v>
       </c>
       <c r="E64">
-        <v>0.06904388636481787</v>
+        <v>-0.008686896392118776</v>
       </c>
       <c r="F64">
-        <v>0.0550946897228721</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03576515521667183</v>
+      </c>
+      <c r="G64">
+        <v>0.03999934278713212</v>
+      </c>
+      <c r="H64">
+        <v>-0.0326091762485886</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.006285627438017259</v>
+        <v>0.03687235661956221</v>
       </c>
       <c r="C65">
-        <v>0.003579883512749964</v>
+        <v>0.001420197938940853</v>
       </c>
       <c r="D65">
-        <v>0.003273300074014152</v>
+        <v>0.02642481817731036</v>
       </c>
       <c r="E65">
-        <v>-0.005681793942424685</v>
+        <v>-0.004074409496295055</v>
       </c>
       <c r="F65">
-        <v>0.003728121989336535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03087206865644318</v>
+      </c>
+      <c r="G65">
+        <v>0.009477328043565783</v>
+      </c>
+      <c r="H65">
+        <v>0.04380924989335052</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.05536682110029736</v>
+        <v>0.04591175231405349</v>
       </c>
       <c r="C66">
-        <v>0.03208781710921865</v>
+        <v>0.01962841940191691</v>
       </c>
       <c r="D66">
-        <v>0.05397596833433954</v>
+        <v>0.0713463105555053</v>
       </c>
       <c r="E66">
-        <v>0.04431277773393228</v>
+        <v>0.0108562289846266</v>
       </c>
       <c r="F66">
-        <v>0.04825088552658291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07224151286459778</v>
+      </c>
+      <c r="G66">
+        <v>0.0591990140344555</v>
+      </c>
+      <c r="H66">
+        <v>0.02712395146791029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02668837204153885</v>
+        <v>0.03398162859103435</v>
       </c>
       <c r="C67">
-        <v>0.01270627446935009</v>
+        <v>0.02063134740625004</v>
       </c>
       <c r="D67">
-        <v>-0.02348739623242823</v>
+        <v>-0.0173996640094139</v>
       </c>
       <c r="E67">
-        <v>-0.01339655008948786</v>
+        <v>-0.0004575567096208771</v>
       </c>
       <c r="F67">
-        <v>0.03307386162923907</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01084596821925071</v>
+      </c>
+      <c r="G67">
+        <v>0.03282983835896604</v>
+      </c>
+      <c r="H67">
+        <v>-0.008303173208818227</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.0564407822676335</v>
+        <v>0.09939507879633122</v>
       </c>
       <c r="C68">
-        <v>0.08045271613427808</v>
+        <v>0.004870773962104591</v>
       </c>
       <c r="D68">
-        <v>-0.1613663193359693</v>
+        <v>-0.220491407992653</v>
       </c>
       <c r="E68">
-        <v>-0.1619772290594725</v>
+        <v>0.02525488882050556</v>
       </c>
       <c r="F68">
-        <v>0.02062691500046436</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.1037827719809193</v>
+      </c>
+      <c r="G68">
+        <v>0.009252127459111295</v>
+      </c>
+      <c r="H68">
+        <v>-0.04042126644714233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07109424778635054</v>
+        <v>0.06196894442158318</v>
       </c>
       <c r="C69">
-        <v>0.0385985484822008</v>
+        <v>0.03589891089899379</v>
       </c>
       <c r="D69">
-        <v>0.01483962846041596</v>
+        <v>0.007707166388368878</v>
       </c>
       <c r="E69">
-        <v>-0.01191399946162023</v>
+        <v>0.007659504420227695</v>
       </c>
       <c r="F69">
-        <v>0.01544300829105793</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02694729936194522</v>
+      </c>
+      <c r="G69">
+        <v>-0.00152824523433602</v>
+      </c>
+      <c r="H69">
+        <v>-0.04834479345903198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05760814244229173</v>
+        <v>0.09690114600749963</v>
       </c>
       <c r="C71">
-        <v>0.09558051513803179</v>
+        <v>0.01352158947812822</v>
       </c>
       <c r="D71">
-        <v>-0.1945692991975427</v>
+        <v>-0.2293690141508309</v>
       </c>
       <c r="E71">
-        <v>-0.2513217537382088</v>
+        <v>0.03267690073171181</v>
       </c>
       <c r="F71">
-        <v>0.08194961721207134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1234698800871261</v>
+      </c>
+      <c r="G71">
+        <v>0.02798569648111622</v>
+      </c>
+      <c r="H71">
+        <v>-0.01100377632676551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1196649277888706</v>
+        <v>0.1071467075518987</v>
       </c>
       <c r="C72">
-        <v>0.1098149676043534</v>
+        <v>0.06270284971795326</v>
       </c>
       <c r="D72">
-        <v>0.02982917340531103</v>
+        <v>0.0402287683626667</v>
       </c>
       <c r="E72">
-        <v>0.04030867290735728</v>
+        <v>0.0118083770175672</v>
       </c>
       <c r="F72">
-        <v>0.03526134850551211</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1187457068143773</v>
+      </c>
+      <c r="G72">
+        <v>0.1116674636663576</v>
+      </c>
+      <c r="H72">
+        <v>0.1192372779187155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2472212103252195</v>
+        <v>0.2461164887746198</v>
       </c>
       <c r="C73">
-        <v>0.1170290307319974</v>
+        <v>0.07692276372786087</v>
       </c>
       <c r="D73">
-        <v>-0.03046416436240539</v>
+        <v>-0.01642553343089089</v>
       </c>
       <c r="E73">
-        <v>-0.1262531011139677</v>
+        <v>0.09206234555539787</v>
       </c>
       <c r="F73">
-        <v>0.1760759419477314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06789012891082687</v>
+      </c>
+      <c r="G73">
+        <v>0.2703133211160596</v>
+      </c>
+      <c r="H73">
+        <v>0.5277429396489829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1292706668988107</v>
+        <v>0.1220681270216513</v>
       </c>
       <c r="C74">
-        <v>0.03768960630398521</v>
+        <v>0.06600163741724864</v>
       </c>
       <c r="D74">
-        <v>0.02709947541051659</v>
+        <v>0.04435025154844469</v>
       </c>
       <c r="E74">
-        <v>0.01362015518832706</v>
+        <v>0.007109821620597052</v>
       </c>
       <c r="F74">
-        <v>-0.1140711865560924</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.06398376512344388</v>
+      </c>
+      <c r="G74">
+        <v>-0.08600180056793491</v>
+      </c>
+      <c r="H74">
+        <v>0.007995479326225336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2315310609727664</v>
+        <v>0.2373901279421963</v>
       </c>
       <c r="C75">
-        <v>0.1070270261866038</v>
+        <v>0.1300554056213539</v>
       </c>
       <c r="D75">
-        <v>0.06357965485193826</v>
+        <v>0.04608079610771571</v>
       </c>
       <c r="E75">
-        <v>0.01051771446633084</v>
+        <v>0.0295988295044082</v>
       </c>
       <c r="F75">
-        <v>-0.1797620724832435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1238499905136276</v>
+      </c>
+      <c r="G75">
+        <v>-0.1861366015396039</v>
+      </c>
+      <c r="H75">
+        <v>-0.02294729430612625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2485944015562085</v>
+        <v>0.2208436283967215</v>
       </c>
       <c r="C76">
-        <v>0.1229147092508837</v>
+        <v>0.1259180789655941</v>
       </c>
       <c r="D76">
-        <v>0.007061929145481273</v>
+        <v>0.04193338738219075</v>
       </c>
       <c r="E76">
-        <v>0.04875656596313237</v>
+        <v>-0.01550691714986701</v>
       </c>
       <c r="F76">
-        <v>-0.215870962151632</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1337316401052412</v>
+      </c>
+      <c r="G76">
+        <v>-0.2071089358846749</v>
+      </c>
+      <c r="H76">
+        <v>-0.04106617048742417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1484521154997247</v>
+        <v>0.09160420131874909</v>
       </c>
       <c r="C77">
-        <v>-0.0120914451126232</v>
+        <v>0.02486292297024487</v>
       </c>
       <c r="D77">
-        <v>0.08093075352986516</v>
+        <v>0.0746425471020918</v>
       </c>
       <c r="E77">
-        <v>0.04242359054192363</v>
+        <v>0.01258975457267646</v>
       </c>
       <c r="F77">
-        <v>0.2090751813240067</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.008664327587733889</v>
+      </c>
+      <c r="G77">
+        <v>0.1401307421380877</v>
+      </c>
+      <c r="H77">
+        <v>-0.2145299665627939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06563102634026341</v>
+        <v>0.04937914368173617</v>
       </c>
       <c r="C78">
-        <v>0.008284339932901643</v>
+        <v>0.02040441174040358</v>
       </c>
       <c r="D78">
-        <v>0.07068698637923315</v>
+        <v>0.05976697172145423</v>
       </c>
       <c r="E78">
-        <v>0.08146741054142105</v>
+        <v>-0.00309295849095875</v>
       </c>
       <c r="F78">
-        <v>0.04094153534021894</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04857912904257718</v>
+      </c>
+      <c r="G78">
+        <v>0.06374436389958736</v>
+      </c>
+      <c r="H78">
+        <v>-0.02985255917771131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1579626016895544</v>
+        <v>0.1665356399154233</v>
       </c>
       <c r="C80">
-        <v>-0.1448587581181084</v>
+        <v>0.06018533340863428</v>
       </c>
       <c r="D80">
-        <v>-0.7134123934383968</v>
+        <v>-0.008746171070742629</v>
       </c>
       <c r="E80">
-        <v>0.6452696574132472</v>
+        <v>-0.9652739233307691</v>
       </c>
       <c r="F80">
-        <v>0.05745094327024033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.1020214606263679</v>
+      </c>
+      <c r="G80">
+        <v>0.09201356946662659</v>
+      </c>
+      <c r="H80">
+        <v>0.03847481452426102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1627527137354984</v>
+        <v>0.1621087038855477</v>
       </c>
       <c r="C81">
-        <v>0.09168452984198416</v>
+        <v>0.08908432628136945</v>
       </c>
       <c r="D81">
-        <v>0.03662970510334004</v>
+        <v>0.03303277991193408</v>
       </c>
       <c r="E81">
-        <v>0.03056168867175647</v>
+        <v>0.004837473527094525</v>
       </c>
       <c r="F81">
-        <v>-0.2034612905420147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0944025505409827</v>
+      </c>
+      <c r="G81">
+        <v>-0.1409971199557572</v>
+      </c>
+      <c r="H81">
+        <v>-0.03972167103079179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05801459591361491</v>
+        <v>0.04309337972399607</v>
       </c>
       <c r="C83">
-        <v>-0.01244508953111825</v>
+        <v>0.01378096888422297</v>
       </c>
       <c r="D83">
-        <v>0.05455671130768879</v>
+        <v>0.02671087910361224</v>
       </c>
       <c r="E83">
-        <v>0.02457998961983794</v>
+        <v>0.01260247801762667</v>
       </c>
       <c r="F83">
-        <v>0.07612312275633212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.0173703903164702</v>
+      </c>
+      <c r="G83">
+        <v>0.06171953809508833</v>
+      </c>
+      <c r="H83">
+        <v>-0.03731578579147907</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2319454429303756</v>
+        <v>0.2253074547379113</v>
       </c>
       <c r="C85">
-        <v>0.08318222592826684</v>
+        <v>0.1116848568679046</v>
       </c>
       <c r="D85">
-        <v>0.03466617053978141</v>
+        <v>0.06929204305403498</v>
       </c>
       <c r="E85">
-        <v>0.02854001691607543</v>
+        <v>0.01788494859429212</v>
       </c>
       <c r="F85">
-        <v>-0.1902301822917652</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1174004466557995</v>
+      </c>
+      <c r="G85">
+        <v>-0.1760322774762917</v>
+      </c>
+      <c r="H85">
+        <v>-0.03096871285868272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01476077828568341</v>
+        <v>0.01278056112658051</v>
       </c>
       <c r="C86">
-        <v>-0.006315804687384362</v>
+        <v>0.0003044982770575785</v>
       </c>
       <c r="D86">
-        <v>0.04093818200209339</v>
+        <v>0.02213578869500686</v>
       </c>
       <c r="E86">
-        <v>0.06140956442237197</v>
+        <v>0.006164097899782622</v>
       </c>
       <c r="F86">
-        <v>0.09381347703903649</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01968372448637885</v>
+      </c>
+      <c r="G86">
+        <v>0.100139903717558</v>
+      </c>
+      <c r="H86">
+        <v>-0.05734172167671271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0156765533788106</v>
+        <v>0.02192277568587444</v>
       </c>
       <c r="C87">
-        <v>0.03078786301800998</v>
+        <v>0.002497777515384683</v>
       </c>
       <c r="D87">
-        <v>-0.03984590327764625</v>
+        <v>-0.008977963158164024</v>
       </c>
       <c r="E87">
-        <v>-0.03861507899513185</v>
+        <v>-0.000661605451027539</v>
       </c>
       <c r="F87">
-        <v>0.06822729523162012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.009137916071100689</v>
+      </c>
+      <c r="G87">
+        <v>0.09246171655198296</v>
+      </c>
+      <c r="H87">
+        <v>-0.001922017206382915</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01419470558178825</v>
+        <v>0.03648855374413039</v>
       </c>
       <c r="C88">
-        <v>0.02046231650371983</v>
+        <v>-0.007888443027427793</v>
       </c>
       <c r="D88">
-        <v>-0.01300743167312314</v>
+        <v>-0.01750504001102509</v>
       </c>
       <c r="E88">
-        <v>0.01192649417214652</v>
+        <v>-0.005093845724089992</v>
       </c>
       <c r="F88">
-        <v>0.03807978539364557</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01334668478300598</v>
+      </c>
+      <c r="G88">
+        <v>0.008963946777776111</v>
+      </c>
+      <c r="H88">
+        <v>-0.03342451925313079</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08475708177325798</v>
+        <v>0.1556638630205635</v>
       </c>
       <c r="C89">
-        <v>0.09648643762292457</v>
+        <v>0.01991740569528312</v>
       </c>
       <c r="D89">
-        <v>-0.1944651320994437</v>
+        <v>-0.3459918903861097</v>
       </c>
       <c r="E89">
-        <v>-0.258081015134775</v>
+        <v>0.06727330527031794</v>
       </c>
       <c r="F89">
-        <v>0.1125383281516672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1571351665828601</v>
+      </c>
+      <c r="G89">
+        <v>0.02401866156870714</v>
+      </c>
+      <c r="H89">
+        <v>-0.087583745250645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07696302795053166</v>
+        <v>0.1202060171854996</v>
       </c>
       <c r="C90">
-        <v>0.09704298345704937</v>
+        <v>0.01377115675223728</v>
       </c>
       <c r="D90">
-        <v>-0.2287154441612898</v>
+        <v>-0.2982092417609562</v>
       </c>
       <c r="E90">
-        <v>-0.2077389658586923</v>
+        <v>0.04016942230061772</v>
       </c>
       <c r="F90">
-        <v>0.06201779993931407</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1509963809041252</v>
+      </c>
+      <c r="G90">
+        <v>-0.01965729044150779</v>
+      </c>
+      <c r="H90">
+        <v>-0.05053754920592055</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2979473604427218</v>
+        <v>0.2545789430936193</v>
       </c>
       <c r="C91">
-        <v>0.08950987575654511</v>
+        <v>0.1371947650208098</v>
       </c>
       <c r="D91">
-        <v>0.07557103077935939</v>
+        <v>0.0782809681620812</v>
       </c>
       <c r="E91">
-        <v>0.04085519907735494</v>
+        <v>0.0211915402555793</v>
       </c>
       <c r="F91">
-        <v>-0.2806962487235705</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1262000144491399</v>
+      </c>
+      <c r="G91">
+        <v>-0.2530480644533457</v>
+      </c>
+      <c r="H91">
+        <v>-0.06429638937130377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1210507157441652</v>
+        <v>0.1872795013898242</v>
       </c>
       <c r="C92">
-        <v>0.08426329852882869</v>
+        <v>0.08897318607562536</v>
       </c>
       <c r="D92">
-        <v>-0.2425093907233299</v>
+        <v>-0.2929895160219829</v>
       </c>
       <c r="E92">
-        <v>-0.2121851684418655</v>
+        <v>0.02373948533571563</v>
       </c>
       <c r="F92">
-        <v>0.06249588987660949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1383512282276565</v>
+      </c>
+      <c r="G92">
+        <v>-0.0507352870250469</v>
+      </c>
+      <c r="H92">
+        <v>-0.1396869914792941</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.07575422029992578</v>
+        <v>0.1416338566423113</v>
       </c>
       <c r="C93">
-        <v>0.08039913524090134</v>
+        <v>0.02361381890380317</v>
       </c>
       <c r="D93">
-        <v>-0.2784000835731222</v>
+        <v>-0.3340183749252564</v>
       </c>
       <c r="E93">
-        <v>-0.284741668866677</v>
+        <v>0.05656061106184824</v>
       </c>
       <c r="F93">
-        <v>0.04138723039848627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1997885656995605</v>
+      </c>
+      <c r="G93">
+        <v>-0.0169418496778416</v>
+      </c>
+      <c r="H93">
+        <v>0.02979031006142358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2445918235781472</v>
+        <v>0.2606157931751604</v>
       </c>
       <c r="C94">
-        <v>0.1138023132168788</v>
+        <v>0.1197223525535965</v>
       </c>
       <c r="D94">
-        <v>-0.007909426020398133</v>
+        <v>0.02869689567366797</v>
       </c>
       <c r="E94">
-        <v>0.005144645779408479</v>
+        <v>0.03505551843053974</v>
       </c>
       <c r="F94">
-        <v>-0.3322481356087731</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1224942352544831</v>
+      </c>
+      <c r="G94">
+        <v>-0.2826649481877432</v>
+      </c>
+      <c r="H94">
+        <v>-0.04855968958716174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1368304482628091</v>
+        <v>0.09080490926348024</v>
       </c>
       <c r="C95">
-        <v>0.005970496844665535</v>
+        <v>0.05225367440870259</v>
       </c>
       <c r="D95">
-        <v>0.1366654815796757</v>
+        <v>0.08364500316680744</v>
       </c>
       <c r="E95">
-        <v>0.06615738450363483</v>
+        <v>0.07595867934839344</v>
       </c>
       <c r="F95">
-        <v>0.09608697543586184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.04182747949386069</v>
+      </c>
+      <c r="G95">
+        <v>0.1082551143300833</v>
+      </c>
+      <c r="H95">
+        <v>-0.1162907548934026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1863442662242354</v>
+        <v>0.1786507261697149</v>
       </c>
       <c r="C98">
-        <v>0.06109450830882713</v>
+        <v>0.08706732538077024</v>
       </c>
       <c r="D98">
-        <v>-0.006189128494732766</v>
+        <v>-0.008364527126862241</v>
       </c>
       <c r="E98">
-        <v>-0.09314508340443507</v>
+        <v>0.06225269417901641</v>
       </c>
       <c r="F98">
-        <v>0.06574797139765061</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02470155206871718</v>
+      </c>
+      <c r="G98">
+        <v>0.2034019816206091</v>
+      </c>
+      <c r="H98">
+        <v>0.4062636825131685</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004103115206824864</v>
+        <v>0.01385790373843544</v>
       </c>
       <c r="C101">
-        <v>0.03066817264096345</v>
+        <v>0.0015517716939363</v>
       </c>
       <c r="D101">
-        <v>0.04807136133703589</v>
+        <v>0.003996996065919272</v>
       </c>
       <c r="E101">
-        <v>0.06263682480137207</v>
+        <v>-0.004375935241318375</v>
       </c>
       <c r="F101">
-        <v>0.1374605708178493</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03818290452225081</v>
+      </c>
+      <c r="G101">
+        <v>0.07794243385168878</v>
+      </c>
+      <c r="H101">
+        <v>-0.1126604279783682</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1024045797976515</v>
+        <v>0.1166566279925151</v>
       </c>
       <c r="C102">
-        <v>0.02885013402458032</v>
+        <v>0.05049716923346559</v>
       </c>
       <c r="D102">
-        <v>0.03931064927764132</v>
+        <v>0.03643684741526749</v>
       </c>
       <c r="E102">
-        <v>0.05043805529803407</v>
+        <v>0.001557429618383688</v>
       </c>
       <c r="F102">
-        <v>-0.1250691718638004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06553073409036352</v>
+      </c>
+      <c r="G102">
+        <v>-0.1199646444897012</v>
+      </c>
+      <c r="H102">
+        <v>-0.01671843596733564</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02761003651011797</v>
+        <v>0.02501112106390031</v>
       </c>
       <c r="C103">
-        <v>0.007101961772061176</v>
+        <v>0.01168101958129856</v>
       </c>
       <c r="D103">
-        <v>0.004109179406538727</v>
+        <v>0.009430220391463419</v>
       </c>
       <c r="E103">
-        <v>-0.0003472906714273068</v>
+        <v>-0.006774783581393653</v>
       </c>
       <c r="F103">
-        <v>-0.03883094605445173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01340220010883049</v>
+      </c>
+      <c r="G103">
+        <v>-0.01343894100314195</v>
+      </c>
+      <c r="H103">
+        <v>-0.01663978467281132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3470233631768452</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9162145253924082</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02290010684122575</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01892012652124524</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1656587620251439</v>
+      </c>
+      <c r="G104">
+        <v>-0.05435012214358583</v>
+      </c>
+      <c r="H104">
+        <v>0.0001326561329817228</v>
       </c>
     </row>
   </sheetData>
